--- a/data/trans_media/dukeGLOBAL-Habitat-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,59; 89,36</t>
+          <t>84,38; 89,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,58; 86,52</t>
+          <t>80,06; 86,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,82; 85,98</t>
+          <t>79,13; 86,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,21; 85,86</t>
+          <t>77,67; 86,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,49; 82,27</t>
+          <t>74,86; 82,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,88; 83,83</t>
+          <t>77,41; 84,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,21; 83,18</t>
+          <t>76,42; 83,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,99; 86,68</t>
+          <t>81,76; 86,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,81; 85,06</t>
+          <t>80,58; 85,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,83; 84,42</t>
+          <t>79,98; 84,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,04; 83,73</t>
+          <t>78,57; 83,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,97; 85,64</t>
+          <t>81,14; 85,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,87; 82,69</t>
+          <t>79,86; 82,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,98</t>
+          <t>86,57; 89,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,21; 82,14</t>
+          <t>79,33; 82,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,09; 85,75</t>
+          <t>82,3; 85,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,24; 79,54</t>
+          <t>76,29; 79,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,89; 86,62</t>
+          <t>84,16; 86,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,54; 80,65</t>
+          <t>77,76; 80,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,76; 84,34</t>
+          <t>81,81; 84,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,46; 80,71</t>
+          <t>78,52; 80,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,67; 87,55</t>
+          <t>85,63; 87,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,98; 81,03</t>
+          <t>78,89; 81,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,54; 84,71</t>
+          <t>82,53; 84,61</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,99; 84,41</t>
+          <t>82,1; 84,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,66; 85,81</t>
+          <t>83,71; 85,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,69; 83,69</t>
+          <t>81,72; 83,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,46; 87,48</t>
+          <t>83,57; 87,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,06; 82,51</t>
+          <t>80,11; 82,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,39; 84,58</t>
+          <t>82,48; 84,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,1; 82,92</t>
+          <t>80,91; 82,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,3; 83,43</t>
+          <t>81,26; 83,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,52; 83,17</t>
+          <t>81,47; 83,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,42; 84,89</t>
+          <t>83,39; 84,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,62; 82,99</t>
+          <t>81,59; 83,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,73; 84,99</t>
+          <t>82,73; 85,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,32; 86,33</t>
+          <t>83,24; 86,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,65; 86,37</t>
+          <t>83,52; 86,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,17; 80,26</t>
+          <t>78,16; 80,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,4; 85,95</t>
+          <t>83,47; 86,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,01; 83,83</t>
+          <t>81,11; 84,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 84,39</t>
+          <t>81,76; 84,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,39; 79,56</t>
+          <t>77,38; 79,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,82; 85,35</t>
+          <t>82,71; 85,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,6; 84,65</t>
+          <t>82,73; 84,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,13; 85,01</t>
+          <t>83,11; 84,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,07; 79,54</t>
+          <t>78,01; 79,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,49; 85,35</t>
+          <t>83,42; 85,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,29; 83,67</t>
+          <t>81,17; 83,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,54; 84,68</t>
+          <t>82,61; 84,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,43; 83,52</t>
+          <t>81,46; 83,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,9; 85,32</t>
+          <t>82,79; 85,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,33; 81,9</t>
+          <t>79,32; 82,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,89</t>
+          <t>80,79; 82,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,47; 82,66</t>
+          <t>80,44; 82,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,98; 85,34</t>
+          <t>82,91; 85,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,6; 82,38</t>
+          <t>80,64; 82,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,01; 83,56</t>
+          <t>82,0; 83,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,32; 82,89</t>
+          <t>81,25; 82,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>83,17; 84,82</t>
+          <t>83,22; 84,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,53; 83,83</t>
+          <t>82,57; 83,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,47; 85,6</t>
+          <t>84,41; 85,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,04; 82,11</t>
+          <t>80,96; 82,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,65; 85,27</t>
+          <t>83,74; 85,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>80,08; 81,45</t>
+          <t>79,98; 81,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,61; 83,71</t>
+          <t>82,64; 83,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,1; 81,25</t>
+          <t>80,07; 81,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,85; 84,0</t>
+          <t>82,76; 83,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,45; 82,39</t>
+          <t>81,51; 82,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>83,65; 84,49</t>
+          <t>83,67; 84,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,7; 81,51</t>
+          <t>80,71; 81,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>83,44; 84,44</t>
+          <t>83,47; 84,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeGLOBAL-Habitat-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,24</t>
+          <t>84,42; 89,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,06; 86,66</t>
+          <t>80,09; 86,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,13; 86,14</t>
+          <t>78,96; 85,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,86; 82,14</t>
+          <t>75,5; 82,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,41; 84,36</t>
+          <t>77,23; 84,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,42; 83,38</t>
+          <t>76,02; 83,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,58; 85,23</t>
+          <t>80,92; 85,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,98; 84,73</t>
+          <t>79,79; 84,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,57; 83,54</t>
+          <t>78,87; 83,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,86; 82,75</t>
+          <t>80,01; 82,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,57; 89,11</t>
+          <t>86,43; 88,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,33; 82,15</t>
+          <t>79,22; 82,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,29; 79,71</t>
+          <t>76,19; 79,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,16; 86,91</t>
+          <t>84,07; 86,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,76; 80,66</t>
+          <t>77,63; 80,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,52; 80,81</t>
+          <t>78,63; 80,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,63; 87,47</t>
+          <t>85,69; 87,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,89; 81,0</t>
+          <t>78,99; 80,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,1; 84,4</t>
+          <t>82,0; 84,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,71; 85,83</t>
+          <t>83,7; 85,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,72; 83,66</t>
+          <t>81,78; 83,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,11; 82,47</t>
+          <t>80,12; 82,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,48; 84,58</t>
+          <t>82,48; 84,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,91; 82,94</t>
+          <t>80,99; 82,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,47; 83,22</t>
+          <t>81,52; 83,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,39; 84,91</t>
+          <t>83,47; 84,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,59; 83,02</t>
+          <t>81,69; 83,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,24; 86,22</t>
+          <t>83,38; 86,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,52; 86,23</t>
+          <t>83,6; 86,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,16; 80,26</t>
+          <t>78,15; 80,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,11; 84,04</t>
+          <t>80,96; 83,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,76; 84,47</t>
+          <t>81,84; 84,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,38; 79,56</t>
+          <t>77,39; 79,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,73; 84,73</t>
+          <t>82,7; 84,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,11; 84,94</t>
+          <t>83,1; 84,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,01; 79,63</t>
+          <t>78,1; 79,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,17; 83,57</t>
+          <t>81,15; 83,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,61; 84,75</t>
+          <t>82,62; 84,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,46; 83,6</t>
+          <t>81,44; 83,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,32; 82,05</t>
+          <t>79,38; 81,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,79; 82,86</t>
+          <t>80,63; 82,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,44; 82,77</t>
+          <t>80,6; 82,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,64; 82,43</t>
+          <t>80,59; 82,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,0; 83,42</t>
+          <t>81,87; 83,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,25; 82,73</t>
+          <t>81,28; 82,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,57; 83,83</t>
+          <t>82,53; 83,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,41; 85,59</t>
+          <t>84,43; 85,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,96; 82,08</t>
+          <t>81,0; 82,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>79,98; 81,34</t>
+          <t>80,01; 81,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,64; 83,8</t>
+          <t>82,61; 83,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,07; 81,16</t>
+          <t>80,03; 81,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,51; 82,41</t>
+          <t>81,46; 82,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>83,67; 84,53</t>
+          <t>83,69; 84,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,71; 81,47</t>
+          <t>80,69; 81,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
